--- a/BackTest/2019-10-29 BackTest ICX.xlsx
+++ b/BackTest/2019-10-29 BackTest ICX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:M117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>1087124.373290674</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>1087124.373290674</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="J3" t="n">
         <v>195</v>
       </c>
-      <c r="K3" t="n">
-        <v>195</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>1094162.818534836</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="J4" t="n">
         <v>195</v>
       </c>
-      <c r="K4" t="n">
-        <v>195</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,24 +562,23 @@
         <v>1091313.300534836</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>195</v>
-      </c>
-      <c r="L5" t="inlineStr">
+        <v>197</v>
+      </c>
+      <c r="J5" t="n">
+        <v>195</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -618,24 +603,23 @@
         <v>1091325.938334836</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>195</v>
-      </c>
-      <c r="L6" t="inlineStr">
+        <v>195</v>
+      </c>
+      <c r="J6" t="n">
+        <v>195</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,24 +644,23 @@
         <v>1091325.938334836</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>195</v>
-      </c>
-      <c r="L7" t="inlineStr">
+        <v>197</v>
+      </c>
+      <c r="J7" t="n">
+        <v>195</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -704,22 +687,19 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>195</v>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>195</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -746,22 +726,19 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>195</v>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>195</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -788,22 +765,19 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>195</v>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>195</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -830,22 +804,19 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>195</v>
-      </c>
-      <c r="L11" t="inlineStr">
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>195</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -870,26 +841,21 @@
         <v>1086220.525834836</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>194</v>
-      </c>
-      <c r="K12" t="n">
-        <v>195</v>
-      </c>
-      <c r="L12" t="inlineStr">
+        <v>195</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -916,22 +882,19 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>195</v>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>195</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -958,22 +921,19 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>195</v>
-      </c>
-      <c r="L14" t="inlineStr">
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>195</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1000,22 +960,19 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>195</v>
-      </c>
-      <c r="L15" t="inlineStr">
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>195</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1042,22 +999,19 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>195</v>
-      </c>
-      <c r="L16" t="inlineStr">
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>195</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1084,22 +1038,19 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>195</v>
-      </c>
-      <c r="L17" t="inlineStr">
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>195</v>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1126,22 +1077,19 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>195</v>
-      </c>
-      <c r="L18" t="inlineStr">
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>195</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1168,22 +1116,19 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>195</v>
-      </c>
-      <c r="L19" t="inlineStr">
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>195</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1208,24 +1153,21 @@
         <v>1094520.044090673</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>195</v>
-      </c>
-      <c r="L20" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>195</v>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M20" t="n">
+      <c r="L20" t="n">
         <v>1.015512820512821</v>
       </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1250,18 +1192,15 @@
         <v>1094520.044090673</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1286,18 +1225,15 @@
         <v>1094520.044090673</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1322,18 +1258,15 @@
         <v>1094418.004090673</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1358,18 +1291,15 @@
         <v>1094418.004090673</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1394,18 +1324,15 @@
         <v>1117796.868590673</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1430,18 +1357,15 @@
         <v>1123186.695890673</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1466,18 +1390,15 @@
         <v>1123186.695890673</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1502,18 +1423,15 @@
         <v>1123124.417790673</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1538,18 +1456,15 @@
         <v>1123114.442790673</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1574,18 +1489,15 @@
         <v>1123115.609790673</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1610,18 +1522,15 @@
         <v>1123115.609790673</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1648,16 +1557,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1684,16 +1590,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1720,16 +1623,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1756,16 +1656,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1792,16 +1689,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1828,16 +1722,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1864,16 +1755,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1900,16 +1788,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1936,16 +1821,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1972,16 +1854,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2008,16 +1887,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2044,16 +1920,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2080,16 +1953,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2116,16 +1986,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2152,16 +2019,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2188,16 +2052,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2224,16 +2085,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2260,16 +2118,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2296,16 +2151,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2332,16 +2184,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2368,16 +2217,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2404,16 +2250,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2440,16 +2283,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2476,16 +2316,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2512,16 +2349,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2548,16 +2382,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2584,16 +2415,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2620,16 +2448,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2656,16 +2481,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2692,16 +2514,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2728,16 +2547,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2764,16 +2580,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2798,18 +2611,15 @@
         <v>1097133.841590673</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2836,16 +2646,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2872,16 +2679,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2908,16 +2712,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2942,18 +2743,15 @@
         <v>1096930.091390673</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2980,16 +2778,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3016,16 +2811,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3052,16 +2844,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3088,16 +2877,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3124,16 +2910,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3160,16 +2943,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3196,16 +2976,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3232,16 +3009,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3268,16 +3042,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3304,16 +3075,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3340,16 +3108,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3376,16 +3141,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3412,16 +3174,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3448,16 +3207,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3484,16 +3240,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3520,16 +3273,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3556,16 +3306,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3592,16 +3339,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3628,16 +3372,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3664,16 +3405,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3700,16 +3438,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3736,16 +3471,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3772,16 +3504,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3808,16 +3537,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3844,16 +3570,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3880,16 +3603,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3916,16 +3636,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3952,16 +3669,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3988,16 +3702,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4024,16 +3735,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4060,16 +3768,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4096,16 +3801,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4132,16 +3834,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4168,16 +3867,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4204,16 +3900,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4240,16 +3933,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4276,16 +3966,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4312,16 +3999,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4348,16 +4032,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4384,16 +4065,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4420,16 +4098,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4456,16 +4131,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4492,16 +4164,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4528,16 +4197,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4564,16 +4230,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4600,16 +4263,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4636,16 +4296,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4672,16 +4329,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4708,18 +4362,15 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest ICX.xlsx
+++ b/BackTest/2019-10-29 BackTest ICX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1087124.373290674</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>1087124.373290674</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>195</v>
@@ -521,11 +521,9 @@
         <v>1094162.818534836</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>195</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
         <v>195</v>
       </c>
@@ -562,11 +560,9 @@
         <v>1091313.300534836</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>197</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>195</v>
       </c>
@@ -603,11 +599,9 @@
         <v>1091325.938334836</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>195</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
         <v>195</v>
       </c>
@@ -644,11 +638,9 @@
         <v>1091325.938334836</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>197</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
         <v>195</v>
       </c>
@@ -1153,85 +1145,97 @@
         <v>1094520.044090673</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
         <v>195</v>
       </c>
       <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>199</v>
+      </c>
+      <c r="C21" t="n">
+        <v>199</v>
+      </c>
+      <c r="D21" t="n">
+        <v>199</v>
+      </c>
+      <c r="E21" t="n">
+        <v>199</v>
+      </c>
+      <c r="F21" t="n">
+        <v>99.34</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1094520.044090673</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>195</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>196</v>
+      </c>
+      <c r="C22" t="n">
+        <v>199</v>
+      </c>
+      <c r="D22" t="n">
+        <v>199</v>
+      </c>
+      <c r="E22" t="n">
+        <v>196</v>
+      </c>
+      <c r="F22" t="n">
+        <v>485.2</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1094520.044090673</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>195</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L20" t="n">
+      <c r="L22" t="n">
         <v>1.015512820512821</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>199</v>
-      </c>
-      <c r="C21" t="n">
-        <v>199</v>
-      </c>
-      <c r="D21" t="n">
-        <v>199</v>
-      </c>
-      <c r="E21" t="n">
-        <v>199</v>
-      </c>
-      <c r="F21" t="n">
-        <v>99.34</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1094520.044090673</v>
-      </c>
-      <c r="H21" t="n">
-        <v>3</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>196</v>
-      </c>
-      <c r="C22" t="n">
-        <v>199</v>
-      </c>
-      <c r="D22" t="n">
-        <v>199</v>
-      </c>
-      <c r="E22" t="n">
-        <v>196</v>
-      </c>
-      <c r="F22" t="n">
-        <v>485.2</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1094520.044090673</v>
-      </c>
-      <c r="H22" t="n">
-        <v>3</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
       </c>
       <c r="M22" t="inlineStr"/>
     </row>
@@ -1258,7 +1262,7 @@
         <v>1094418.004090673</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1291,7 +1295,7 @@
         <v>1094418.004090673</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1324,7 +1328,7 @@
         <v>1117796.868590673</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1357,7 +1361,7 @@
         <v>1123186.695890673</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1390,7 +1394,7 @@
         <v>1123186.695890673</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1423,7 +1427,7 @@
         <v>1123124.417790673</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1456,7 +1460,7 @@
         <v>1123114.442790673</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1489,7 +1493,7 @@
         <v>1123115.609790673</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1522,7 +1526,7 @@
         <v>1123115.609790673</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1555,7 +1559,7 @@
         <v>1117870.879590673</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1588,7 +1592,7 @@
         <v>1119730.571790673</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1621,7 +1625,7 @@
         <v>1119730.571790673</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1654,7 +1658,7 @@
         <v>1118482.702690673</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1720,7 +1724,7 @@
         <v>1118499.502690673</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1753,7 +1757,7 @@
         <v>1118500.643990673</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1786,7 +1790,7 @@
         <v>1118490.643990673</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1819,7 +1823,7 @@
         <v>1097263.517890673</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1852,7 +1856,7 @@
         <v>1097263.517890673</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1885,7 +1889,7 @@
         <v>1097265.443890673</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1918,7 +1922,7 @@
         <v>1097265.443890673</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1951,7 +1955,7 @@
         <v>1097265.443890673</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1984,7 +1988,7 @@
         <v>1095856.690990673</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2017,7 +2021,7 @@
         <v>1095856.690990673</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2050,7 +2054,7 @@
         <v>1095855.690990673</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2413,7 +2417,7 @@
         <v>1095573.264490673</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2611,7 +2615,7 @@
         <v>1097133.841590673</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2743,7 +2747,7 @@
         <v>1096930.091390673</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -4371,6 +4375,6 @@
       <c r="M117" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest ICX.xlsx
+++ b/BackTest/2019-10-29 BackTest ICX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -521,9 +521,11 @@
         <v>1094162.818534836</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>195</v>
+      </c>
       <c r="J4" t="n">
         <v>195</v>
       </c>
@@ -677,7 +679,7 @@
         <v>1091325.938334836</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
@@ -794,7 +796,7 @@
         <v>1086218.525834836</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
@@ -1067,7 +1069,7 @@
         <v>1093509.217790673</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
@@ -1075,11 +1077,11 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>1.010384615384615</v>
       </c>
       <c r="M18" t="inlineStr"/>
     </row>
@@ -1109,14 +1111,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>195</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1148,14 +1144,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>195</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1187,14 +1177,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>195</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1223,19 +1207,13 @@
         <v>1094520.044090673</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>195</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>1.015512820512821</v>
+        <v>1</v>
       </c>
       <c r="M22" t="inlineStr"/>
     </row>
@@ -1262,7 +1240,7 @@
         <v>1094418.004090673</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1295,7 +1273,7 @@
         <v>1094418.004090673</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1328,7 +1306,7 @@
         <v>1117796.868590673</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1361,7 +1339,7 @@
         <v>1123186.695890673</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1394,7 +1372,7 @@
         <v>1123186.695890673</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1427,7 +1405,7 @@
         <v>1123124.417790673</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1460,7 +1438,7 @@
         <v>1123114.442790673</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1691,7 +1669,7 @@
         <v>1118509.502690673</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1757,7 +1735,7 @@
         <v>1118500.643990673</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1790,7 +1768,7 @@
         <v>1118490.643990673</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1823,7 +1801,7 @@
         <v>1097263.517890673</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -2021,7 +1999,7 @@
         <v>1095856.690990673</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2087,7 +2065,7 @@
         <v>1095856.997690673</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2120,7 +2098,7 @@
         <v>1095856.997690673</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2153,7 +2131,7 @@
         <v>1095635.722790673</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2417,7 +2395,7 @@
         <v>1095573.264490673</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -3968,7 +3946,7 @@
         <v>1085328.429190673</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4001,7 +3979,7 @@
         <v>1085328.429190673</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4034,7 +4012,7 @@
         <v>1087763.701390673</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4067,7 +4045,7 @@
         <v>1087763.701390673</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4100,7 +4078,7 @@
         <v>1085849.151690673</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4133,7 +4111,7 @@
         <v>1085849.151690673</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4375,6 +4353,6 @@
       <c r="M117" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest ICX.xlsx
+++ b/BackTest/2019-10-29 BackTest ICX.xlsx
@@ -601,9 +601,11 @@
         <v>1091325.938334836</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>195</v>
+      </c>
       <c r="J6" t="n">
         <v>195</v>
       </c>
@@ -679,7 +681,7 @@
         <v>1091325.938334836</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
@@ -796,7 +798,7 @@
         <v>1086218.525834836</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
@@ -1069,118 +1071,136 @@
         <v>1093509.217790673</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
         <v>195</v>
       </c>
       <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>198</v>
+      </c>
+      <c r="C19" t="n">
+        <v>198</v>
+      </c>
+      <c r="D19" t="n">
+        <v>198</v>
+      </c>
+      <c r="E19" t="n">
+        <v>198</v>
+      </c>
+      <c r="F19" t="n">
+        <v>366.7155</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1093509.217790673</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>195</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>199</v>
+      </c>
+      <c r="C20" t="n">
+        <v>199</v>
+      </c>
+      <c r="D20" t="n">
+        <v>199</v>
+      </c>
+      <c r="E20" t="n">
+        <v>199</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1010.8263</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1094520.044090673</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>195</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>199</v>
+      </c>
+      <c r="C21" t="n">
+        <v>199</v>
+      </c>
+      <c r="D21" t="n">
+        <v>199</v>
+      </c>
+      <c r="E21" t="n">
+        <v>199</v>
+      </c>
+      <c r="F21" t="n">
+        <v>99.34</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1094520.044090673</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>195</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L18" t="n">
-        <v>1.010384615384615</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>198</v>
-      </c>
-      <c r="C19" t="n">
-        <v>198</v>
-      </c>
-      <c r="D19" t="n">
-        <v>198</v>
-      </c>
-      <c r="E19" t="n">
-        <v>198</v>
-      </c>
-      <c r="F19" t="n">
-        <v>366.7155</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1093509.217790673</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>199</v>
-      </c>
-      <c r="C20" t="n">
-        <v>199</v>
-      </c>
-      <c r="D20" t="n">
-        <v>199</v>
-      </c>
-      <c r="E20" t="n">
-        <v>199</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1010.8263</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1094520.044090673</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>199</v>
-      </c>
-      <c r="C21" t="n">
-        <v>199</v>
-      </c>
-      <c r="D21" t="n">
-        <v>199</v>
-      </c>
-      <c r="E21" t="n">
-        <v>199</v>
-      </c>
-      <c r="F21" t="n">
-        <v>99.34</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1094520.044090673</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>1.015512820512821</v>
       </c>
       <c r="M21" t="inlineStr"/>
     </row>
@@ -1207,7 +1227,7 @@
         <v>1094520.044090673</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1240,7 +1260,7 @@
         <v>1094418.004090673</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1273,7 +1293,7 @@
         <v>1094418.004090673</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1306,7 +1326,7 @@
         <v>1117796.868590673</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1339,7 +1359,7 @@
         <v>1123186.695890673</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1372,7 +1392,7 @@
         <v>1123186.695890673</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1405,7 +1425,7 @@
         <v>1123124.417790673</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1438,7 +1458,7 @@
         <v>1123114.442790673</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1504,7 +1524,7 @@
         <v>1123115.609790673</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1570,7 +1590,7 @@
         <v>1119730.571790673</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1603,7 +1623,7 @@
         <v>1119730.571790673</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1636,7 +1656,7 @@
         <v>1118482.702690673</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1669,7 +1689,7 @@
         <v>1118509.502690673</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1702,7 +1722,7 @@
         <v>1118499.502690673</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1834,7 +1854,7 @@
         <v>1097263.517890673</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1867,7 +1887,7 @@
         <v>1097265.443890673</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1900,7 +1920,7 @@
         <v>1097265.443890673</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1966,7 +1986,7 @@
         <v>1095856.690990673</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2032,7 +2052,7 @@
         <v>1095855.690990673</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2065,7 +2085,7 @@
         <v>1095856.997690673</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2098,7 +2118,7 @@
         <v>1095856.997690673</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2131,7 +2151,7 @@
         <v>1095635.722790673</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -3946,7 +3966,7 @@
         <v>1085328.429190673</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3979,7 +3999,7 @@
         <v>1085328.429190673</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4012,7 +4032,7 @@
         <v>1087763.701390673</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4045,7 +4065,7 @@
         <v>1087763.701390673</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4078,7 +4098,7 @@
         <v>1085849.151690673</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4111,7 +4131,7 @@
         <v>1085849.151690673</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>

--- a/BackTest/2019-10-29 BackTest ICX.xlsx
+++ b/BackTest/2019-10-29 BackTest ICX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M117"/>
+  <dimension ref="A1:L117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>1488.5134</v>
       </c>
       <c r="G2" t="n">
-        <v>1087124.373290674</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>511.4866</v>
       </c>
       <c r="G3" t="n">
-        <v>1087124.373290674</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>195</v>
       </c>
       <c r="I3" t="n">
         <v>195</v>
       </c>
-      <c r="J3" t="n">
-        <v>195</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,23 @@
         <v>7038.445244162436</v>
       </c>
       <c r="G4" t="n">
-        <v>1094162.818534836</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>195</v>
       </c>
       <c r="I4" t="n">
         <v>195</v>
       </c>
-      <c r="J4" t="n">
-        <v>195</v>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,24 +545,21 @@
         <v>2849.518</v>
       </c>
       <c r="G5" t="n">
-        <v>1091313.300534836</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>195</v>
-      </c>
-      <c r="K5" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>195</v>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,26 +581,21 @@
         <v>12.6378</v>
       </c>
       <c r="G6" t="n">
-        <v>1091325.938334836</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
         <v>195</v>
       </c>
-      <c r="J6" t="n">
-        <v>195</v>
-      </c>
-      <c r="K6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -639,24 +617,21 @@
         <v>5120.2131</v>
       </c>
       <c r="G7" t="n">
-        <v>1091325.938334836</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>195</v>
-      </c>
-      <c r="K7" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>195</v>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -678,24 +653,21 @@
         <v>1.5913</v>
       </c>
       <c r="G8" t="n">
-        <v>1091325.938334836</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>195</v>
-      </c>
-      <c r="K8" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>195</v>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -717,24 +689,21 @@
         <v>25</v>
       </c>
       <c r="G9" t="n">
-        <v>1091325.938334836</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>195</v>
-      </c>
-      <c r="K9" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>195</v>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -756,24 +725,21 @@
         <v>4503.4139</v>
       </c>
       <c r="G10" t="n">
-        <v>1086822.524434836</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>195</v>
-      </c>
-      <c r="K10" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>195</v>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -795,24 +761,21 @@
         <v>603.9986</v>
       </c>
       <c r="G11" t="n">
-        <v>1086218.525834836</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>195</v>
-      </c>
-      <c r="K11" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>195</v>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -834,24 +797,21 @@
         <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>1086220.525834836</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>195</v>
-      </c>
-      <c r="K12" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>195</v>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -873,24 +833,21 @@
         <v>24.9375</v>
       </c>
       <c r="G13" t="n">
-        <v>1086195.588334836</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>195</v>
-      </c>
-      <c r="K13" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>195</v>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -912,24 +869,21 @@
         <v>315.6782</v>
       </c>
       <c r="G14" t="n">
-        <v>1086195.588334836</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>195</v>
-      </c>
-      <c r="K14" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>195</v>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -951,24 +905,21 @@
         <v>1.8413</v>
       </c>
       <c r="G15" t="n">
-        <v>1086197.429634836</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>195</v>
-      </c>
-      <c r="K15" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>195</v>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -990,24 +941,21 @@
         <v>270.2192</v>
       </c>
       <c r="G16" t="n">
-        <v>1085927.210434836</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>195</v>
-      </c>
-      <c r="K16" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>195</v>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1029,24 +977,21 @@
         <v>1.4137</v>
       </c>
       <c r="G17" t="n">
-        <v>1085928.624134836</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>195</v>
-      </c>
-      <c r="K17" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>195</v>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1068,24 +1013,21 @@
         <v>7580.593655837563</v>
       </c>
       <c r="G18" t="n">
-        <v>1093509.217790673</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>195</v>
-      </c>
-      <c r="K18" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>195</v>
+      </c>
+      <c r="J18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1107,24 +1049,21 @@
         <v>366.7155</v>
       </c>
       <c r="G19" t="n">
-        <v>1093509.217790673</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>195</v>
-      </c>
-      <c r="K19" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>195</v>
+      </c>
+      <c r="J19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1146,24 +1085,21 @@
         <v>1010.8263</v>
       </c>
       <c r="G20" t="n">
-        <v>1094520.044090673</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>195</v>
-      </c>
-      <c r="K20" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>195</v>
+      </c>
+      <c r="J20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1185,24 +1121,21 @@
         <v>99.34</v>
       </c>
       <c r="G21" t="n">
-        <v>1094520.044090673</v>
-      </c>
-      <c r="H21" t="n">
         <v>2</v>
       </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>195</v>
-      </c>
-      <c r="K21" t="inlineStr">
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>195</v>
+      </c>
+      <c r="J21" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L21" t="n">
+      <c r="K21" t="n">
         <v>1.015512820512821</v>
       </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1224,18 +1157,15 @@
         <v>485.2</v>
       </c>
       <c r="G22" t="n">
-        <v>1094520.044090673</v>
-      </c>
-      <c r="H22" t="n">
         <v>2</v>
       </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1257,18 +1187,15 @@
         <v>102.04</v>
       </c>
       <c r="G23" t="n">
-        <v>1094418.004090673</v>
-      </c>
-      <c r="H23" t="n">
         <v>2</v>
       </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1290,18 +1217,15 @@
         <v>1329.8158</v>
       </c>
       <c r="G24" t="n">
-        <v>1094418.004090673</v>
-      </c>
-      <c r="H24" t="n">
         <v>2</v>
       </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1323,18 +1247,15 @@
         <v>23378.8645</v>
       </c>
       <c r="G25" t="n">
-        <v>1117796.868590673</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1356,18 +1277,15 @@
         <v>5389.8273</v>
       </c>
       <c r="G26" t="n">
-        <v>1123186.695890673</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1389,18 +1307,15 @@
         <v>412.2219</v>
       </c>
       <c r="G27" t="n">
-        <v>1123186.695890673</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1422,18 +1337,15 @@
         <v>62.2781</v>
       </c>
       <c r="G28" t="n">
-        <v>1123124.417790673</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1455,18 +1367,15 @@
         <v>9.975</v>
       </c>
       <c r="G29" t="n">
-        <v>1123114.442790673</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1488,18 +1397,15 @@
         <v>1.167</v>
       </c>
       <c r="G30" t="n">
-        <v>1123115.609790673</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1521,18 +1427,15 @@
         <v>4</v>
       </c>
       <c r="G31" t="n">
-        <v>1123115.609790673</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1554,18 +1457,15 @@
         <v>5244.7302</v>
       </c>
       <c r="G32" t="n">
-        <v>1117870.879590673</v>
-      </c>
-      <c r="H32" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1587,18 +1487,15 @@
         <v>1859.6922</v>
       </c>
       <c r="G33" t="n">
-        <v>1119730.571790673</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1620,18 +1517,15 @@
         <v>97.3061</v>
       </c>
       <c r="G34" t="n">
-        <v>1119730.571790673</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1653,18 +1547,15 @@
         <v>1247.8691</v>
       </c>
       <c r="G35" t="n">
-        <v>1118482.702690673</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1686,18 +1577,15 @@
         <v>26.8</v>
       </c>
       <c r="G36" t="n">
-        <v>1118509.502690673</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1719,18 +1607,15 @@
         <v>10</v>
       </c>
       <c r="G37" t="n">
-        <v>1118499.502690673</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1752,18 +1637,15 @@
         <v>1.1413</v>
       </c>
       <c r="G38" t="n">
-        <v>1118500.643990673</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1785,18 +1667,15 @@
         <v>10</v>
       </c>
       <c r="G39" t="n">
-        <v>1118490.643990673</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1818,18 +1697,15 @@
         <v>21227.1261</v>
       </c>
       <c r="G40" t="n">
-        <v>1097263.517890673</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1851,18 +1727,15 @@
         <v>7878.075</v>
       </c>
       <c r="G41" t="n">
-        <v>1097263.517890673</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1884,18 +1757,15 @@
         <v>1.926</v>
       </c>
       <c r="G42" t="n">
-        <v>1097265.443890673</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1917,18 +1787,15 @@
         <v>470.2419</v>
       </c>
       <c r="G43" t="n">
-        <v>1097265.443890673</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1950,18 +1817,15 @@
         <v>3.0459</v>
       </c>
       <c r="G44" t="n">
-        <v>1097265.443890673</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1983,18 +1847,15 @@
         <v>1408.7529</v>
       </c>
       <c r="G45" t="n">
-        <v>1095856.690990673</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2016,18 +1877,15 @@
         <v>498.1688</v>
       </c>
       <c r="G46" t="n">
-        <v>1095856.690990673</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2049,18 +1907,15 @@
         <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>1095855.690990673</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2082,18 +1937,15 @@
         <v>1.3067</v>
       </c>
       <c r="G48" t="n">
-        <v>1095856.997690673</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2115,18 +1967,15 @@
         <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>1095856.997690673</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2148,18 +1997,15 @@
         <v>221.2749</v>
       </c>
       <c r="G50" t="n">
-        <v>1095635.722790673</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2181,18 +2027,15 @@
         <v>15486.555</v>
       </c>
       <c r="G51" t="n">
-        <v>1095635.722790673</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2214,18 +2057,15 @@
         <v>97.0628</v>
       </c>
       <c r="G52" t="n">
-        <v>1095635.722790673</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2247,18 +2087,15 @@
         <v>1.317</v>
       </c>
       <c r="G53" t="n">
-        <v>1095637.039790673</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2280,18 +2117,15 @@
         <v>240.7783505154639</v>
       </c>
       <c r="G54" t="n">
-        <v>1095637.039790673</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2313,18 +2147,15 @@
         <v>64.7987</v>
       </c>
       <c r="G55" t="n">
-        <v>1095572.241090673</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2346,18 +2177,15 @@
         <v>2311.6768</v>
       </c>
       <c r="G56" t="n">
-        <v>1095572.241090673</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2379,18 +2207,15 @@
         <v>1.0234</v>
       </c>
       <c r="G57" t="n">
-        <v>1095573.264490673</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2412,18 +2237,15 @@
         <v>204.74</v>
       </c>
       <c r="G58" t="n">
-        <v>1095573.264490673</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2445,18 +2267,15 @@
         <v>102.37</v>
       </c>
       <c r="G59" t="n">
-        <v>1095573.264490673</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2478,18 +2297,15 @@
         <v>5458.932949484536</v>
       </c>
       <c r="G60" t="n">
-        <v>1095573.264490673</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2511,18 +2327,15 @@
         <v>1.9244</v>
       </c>
       <c r="G61" t="n">
-        <v>1095575.188890673</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2544,18 +2357,15 @@
         <v>442.8284</v>
       </c>
       <c r="G62" t="n">
-        <v>1095132.360490673</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2577,18 +2387,15 @@
         <v>2000</v>
       </c>
       <c r="G63" t="n">
-        <v>1097132.360490673</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2610,18 +2417,15 @@
         <v>1.4811</v>
       </c>
       <c r="G64" t="n">
-        <v>1097133.841590673</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2643,18 +2447,15 @@
         <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>1097132.841590673</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2676,18 +2477,15 @@
         <v>1515.86</v>
       </c>
       <c r="G66" t="n">
-        <v>1097132.841590673</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2709,18 +2507,15 @@
         <v>2.3698</v>
       </c>
       <c r="G67" t="n">
-        <v>1097135.211390673</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2742,18 +2537,15 @@
         <v>205.12</v>
       </c>
       <c r="G68" t="n">
-        <v>1096930.091390673</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2775,18 +2567,15 @@
         <v>4794.88</v>
       </c>
       <c r="G69" t="n">
-        <v>1096930.091390673</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2808,18 +2597,15 @@
         <v>938.4634</v>
       </c>
       <c r="G70" t="n">
-        <v>1096930.091390673</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2841,18 +2627,15 @@
         <v>1069.2295</v>
       </c>
       <c r="G71" t="n">
-        <v>1096930.091390673</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2874,18 +2657,15 @@
         <v>1577.9121</v>
       </c>
       <c r="G72" t="n">
-        <v>1095352.179290673</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2907,18 +2687,15 @@
         <v>635.4776000000001</v>
       </c>
       <c r="G73" t="n">
-        <v>1095352.179290673</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2940,18 +2717,15 @@
         <v>2.0739</v>
       </c>
       <c r="G74" t="n">
-        <v>1095354.253190673</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2973,18 +2747,15 @@
         <v>9623.0658</v>
       </c>
       <c r="G75" t="n">
-        <v>1085731.187390673</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3006,18 +2777,15 @@
         <v>2.2627</v>
       </c>
       <c r="G76" t="n">
-        <v>1085733.450090673</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3039,18 +2807,15 @@
         <v>3209.9776</v>
       </c>
       <c r="G77" t="n">
-        <v>1085733.450090673</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3072,18 +2837,15 @@
         <v>278.9141</v>
       </c>
       <c r="G78" t="n">
-        <v>1086012.364190673</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3105,18 +2867,15 @@
         <v>410</v>
       </c>
       <c r="G79" t="n">
-        <v>1085602.364190673</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3138,18 +2897,15 @@
         <v>25.3807</v>
       </c>
       <c r="G80" t="n">
-        <v>1085602.364190673</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3171,18 +2927,15 @@
         <v>156.4885</v>
       </c>
       <c r="G81" t="n">
-        <v>1085445.875690673</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3204,18 +2957,15 @@
         <v>69.5575</v>
       </c>
       <c r="G82" t="n">
-        <v>1085515.433190673</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3237,18 +2987,15 @@
         <v>25.3173</v>
       </c>
       <c r="G83" t="n">
-        <v>1085490.115890673</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3270,18 +3017,15 @@
         <v>1.5627</v>
       </c>
       <c r="G84" t="n">
-        <v>1085491.678590673</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3303,18 +3047,15 @@
         <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>1085490.678590673</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3336,18 +3077,15 @@
         <v>1.4066</v>
       </c>
       <c r="G86" t="n">
-        <v>1085492.085190673</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3369,18 +3107,15 @@
         <v>62.2782</v>
       </c>
       <c r="G87" t="n">
-        <v>1085429.806990673</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3402,18 +3137,15 @@
         <v>675.444350515464</v>
       </c>
       <c r="G88" t="n">
-        <v>1085429.806990673</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3435,18 +3167,15 @@
         <v>19.1108</v>
       </c>
       <c r="G89" t="n">
-        <v>1085429.806990673</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3468,18 +3197,15 @@
         <v>307.14</v>
       </c>
       <c r="G90" t="n">
-        <v>1085429.806990673</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3501,18 +3227,15 @@
         <v>819.04</v>
       </c>
       <c r="G91" t="n">
-        <v>1085429.806990673</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3534,18 +3257,15 @@
         <v>5662.1188</v>
       </c>
       <c r="G92" t="n">
-        <v>1085429.806990673</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3567,18 +3287,15 @@
         <v>102.32</v>
       </c>
       <c r="G93" t="n">
-        <v>1085429.806990673</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3600,18 +3317,15 @@
         <v>613.92</v>
       </c>
       <c r="G94" t="n">
-        <v>1085429.806990673</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3633,18 +3347,15 @@
         <v>306.96</v>
       </c>
       <c r="G95" t="n">
-        <v>1085429.806990673</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3666,18 +3377,15 @@
         <v>1429.402349484536</v>
       </c>
       <c r="G96" t="n">
-        <v>1085429.806990673</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3699,18 +3407,15 @@
         <v>645.4990505154639</v>
       </c>
       <c r="G97" t="n">
-        <v>1085429.806990673</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3732,18 +3437,15 @@
         <v>204.76</v>
       </c>
       <c r="G98" t="n">
-        <v>1085429.806990673</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3765,18 +3467,15 @@
         <v>102.32</v>
       </c>
       <c r="G99" t="n">
-        <v>1085429.806990673</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3798,18 +3497,15 @@
         <v>102.26</v>
       </c>
       <c r="G100" t="n">
-        <v>1085429.806990673</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3831,18 +3527,15 @@
         <v>102.26</v>
       </c>
       <c r="G101" t="n">
-        <v>1085429.806990673</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3864,18 +3557,15 @@
         <v>527.7658</v>
       </c>
       <c r="G102" t="n">
-        <v>1085429.806990673</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3897,18 +3587,15 @@
         <v>1525.1127</v>
       </c>
       <c r="G103" t="n">
-        <v>1085429.806990673</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3930,18 +3617,15 @@
         <v>1.1822</v>
       </c>
       <c r="G104" t="n">
-        <v>1085430.989190673</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3963,18 +3647,15 @@
         <v>102.56</v>
       </c>
       <c r="G105" t="n">
-        <v>1085328.429190673</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3996,18 +3677,15 @@
         <v>307.68</v>
       </c>
       <c r="G106" t="n">
-        <v>1085328.429190673</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4029,18 +3707,15 @@
         <v>2435.2722</v>
       </c>
       <c r="G107" t="n">
-        <v>1087763.701390673</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4062,18 +3737,15 @@
         <v>120.1135</v>
       </c>
       <c r="G108" t="n">
-        <v>1087763.701390673</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4095,18 +3767,15 @@
         <v>1914.5497</v>
       </c>
       <c r="G109" t="n">
-        <v>1085849.151690673</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4128,18 +3797,15 @@
         <v>3383.6717</v>
       </c>
       <c r="G110" t="n">
-        <v>1085849.151690673</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4161,18 +3827,15 @@
         <v>13125.659</v>
       </c>
       <c r="G111" t="n">
-        <v>1085849.151690673</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4194,18 +3857,15 @@
         <v>1.4888</v>
       </c>
       <c r="G112" t="n">
-        <v>1085850.640490673</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4227,18 +3887,15 @@
         <v>102.56</v>
       </c>
       <c r="G113" t="n">
-        <v>1085748.080490672</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4260,18 +3917,15 @@
         <v>528</v>
       </c>
       <c r="G114" t="n">
-        <v>1085220.080490672</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4293,18 +3947,15 @@
         <v>28.0195</v>
       </c>
       <c r="G115" t="n">
-        <v>1085220.080490672</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4326,18 +3977,15 @@
         <v>1.0739</v>
       </c>
       <c r="G116" t="n">
-        <v>1085221.154390672</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4359,18 +4007,15 @@
         <v>427.8056</v>
       </c>
       <c r="G117" t="n">
-        <v>1085221.154390672</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
